--- a/sqls/dados/grupos.xlsx
+++ b/sqls/dados/grupos.xlsx
@@ -4572,7 +4572,7 @@
   <dimension ref="A1:C1070"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A731" sqref="A1:XFD1048576"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
